--- a/wifi_hacking/combination_tasks.xlsx
+++ b/wifi_hacking/combination_tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.12\Users\cdutboy\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06519060-03F1-4796-BFDE-096ED59EC3FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514EBF3D-7340-416D-BA2D-CBF12DAA955F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="221">
   <si>
     <t>27</t>
   </si>
@@ -327,9 +327,6 @@
     <t>-a 1 #HL# cnames_cn.txt years_months_days.txt</t>
   </si>
   <si>
-    <t>33h</t>
-  </si>
-  <si>
     <t>top500names_months_days</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
   </si>
   <si>
     <t>-a 1 #HL# beijing_phonenumbers.txt shengmu_double.txt</t>
-  </si>
-  <si>
-    <t>27h</t>
   </si>
   <si>
     <t>62</t>
@@ -696,6 +690,54 @@
   </si>
   <si>
     <t>hashtopolis</t>
+  </si>
+  <si>
+    <t>29h</t>
+  </si>
+  <si>
+    <t>35h</t>
+  </si>
+  <si>
+    <t>names_weak</t>
+  </si>
+  <si>
+    <t>weak_names</t>
+  </si>
+  <si>
+    <t>top3000names_weak</t>
+  </si>
+  <si>
+    <t>weak_top3000names</t>
+  </si>
+  <si>
+    <t>familynames_weak</t>
+  </si>
+  <si>
+    <t>weak_family_names</t>
+  </si>
+  <si>
+    <t>-a 1 #HL# names_cn.txt wordlist.txt</t>
+  </si>
+  <si>
+    <t>-a 1 #HL# wordlist.txt names_cn.txt</t>
+  </si>
+  <si>
+    <t>-a 1 #HL# top3000names.txt wordlist.txt</t>
+  </si>
+  <si>
+    <t>-a 1 #HL# wordlist.txt top3000names.txt</t>
+  </si>
+  <si>
+    <t>-a 1 #HL# family_names.txt wordlist.txt</t>
+  </si>
+  <si>
+    <t>-a 1 #HL# wordlist.txt family_names.txt</t>
+  </si>
+  <si>
+    <t>22h</t>
+  </si>
+  <si>
+    <t>21h</t>
   </si>
 </sst>
 </file>
@@ -1222,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1363,16 +1405,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
@@ -1385,10 +1427,10 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6">
@@ -1402,10 +1444,10 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6">
@@ -1418,16 +1460,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
@@ -1440,10 +1482,10 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6">
@@ -1456,16 +1498,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
@@ -1478,10 +1520,10 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6">
@@ -1495,10 +1537,10 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6">
@@ -1511,16 +1553,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
@@ -1533,10 +1575,10 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6">
@@ -1548,59 +1590,52 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
+      <c r="B17" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="6">
-        <v>2</v>
+        <v>218</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
       </c>
       <c r="F17" s="6">
-        <f>E17</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E18" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="6">
         <f>E18</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E19" s="6">
         <v>3</v>
@@ -1611,14 +1646,18 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4" t="s">
-        <v>189</v>
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D20" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="E20" s="6">
         <v>3</v>
       </c>
@@ -1630,10 +1669,10 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6">
@@ -1645,417 +1684,404 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>36</v>
+      <c r="A22" s="2"/>
+      <c r="B22" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F22" s="6">
         <f>E22</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="6">
         <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="6">
-        <v>32</v>
-      </c>
-      <c r="F23" s="6">
-        <f>E23</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6">
-        <v>34</v>
-      </c>
-      <c r="F24" s="6">
-        <f>E24</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6">
-        <v>35</v>
-      </c>
-      <c r="F25" s="6">
-        <f>E25</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6">
-        <v>35</v>
       </c>
       <c r="F26" s="6">
         <f>E26</f>
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="E27" s="6">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F27" s="6">
         <f>E27</f>
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F28" s="6">
         <f>E28</f>
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="6">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F29" s="6">
         <f>E29</f>
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>118</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>121</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D30" s="5"/>
       <c r="E30" s="6">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F30" s="6">
         <f>E30</f>
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="B31" s="3" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="E31" s="6">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="F31" s="6">
         <f>E31</f>
-        <v>105</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="6">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="F32" s="6">
         <f>E32</f>
-        <v>105</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B33" s="3" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="E33" s="6">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="F33" s="6">
         <f>E33</f>
-        <v>106</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>154</v>
+      <c r="A34" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="E34" s="6">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="F34" s="6">
         <f>E34</f>
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="6">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F35" s="6">
         <f>E35</f>
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="6">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F36" s="6">
         <f>E36</f>
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>142</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D37" s="5"/>
       <c r="E37" s="6">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="F37" s="6">
         <f>E37</f>
-        <v>138</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="E38" s="6">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="F38" s="6">
         <f>E38</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="D39" s="5"/>
       <c r="E39" s="6">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="F39" s="6">
         <f>E39</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="6">
-        <v>262</v>
+        <v>120</v>
       </c>
       <c r="F40" s="6">
         <f>E40</f>
-        <v>262</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
+      <c r="A41" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="B41" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="5"/>
+        <v>139</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="E41" s="6">
-        <v>268</v>
+        <v>138</v>
       </c>
       <c r="F41" s="6">
         <f>E41</f>
-        <v>268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E42" s="6">
-        <v>282</v>
+        <v>157</v>
       </c>
       <c r="F42" s="6">
         <f>E42</f>
-        <v>282</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+      <c r="A43" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B43" s="3" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="E43" s="6">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="F43" s="6">
         <f>E43</f>
-        <v>287</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2072,452 +2098,552 @@
         <v>63</v>
       </c>
       <c r="E44" s="6">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F44" s="6">
         <f>E44</f>
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>65</v>
+      <c r="A45" s="2"/>
+      <c r="B45" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D45" s="5"/>
       <c r="E45" s="6">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="F45" s="6">
         <f>E45</f>
-        <v>480</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="E46" s="6">
-        <v>527</v>
+        <v>400</v>
       </c>
       <c r="F46" s="6">
         <f>E46</f>
-        <v>527</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>73</v>
+      <c r="A47" s="2"/>
+      <c r="B47" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>75</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D47" s="5"/>
       <c r="E47" s="6">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="F47" s="6">
         <f>E47</f>
-        <v>540</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>150</v>
+      <c r="A48" s="2"/>
+      <c r="B48" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>146</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D48" s="5"/>
       <c r="E48" s="6">
-        <v>540</v>
+        <v>404</v>
       </c>
       <c r="F48" s="6">
         <f>E48</f>
-        <v>540</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="E49" s="6">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="F49" s="6">
         <f>E49</f>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="6">
         <v>540</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="3" t="s">
+      <c r="F50" s="6">
+        <f>E50</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" s="6">
+        <v>540</v>
+      </c>
+      <c r="F51" s="6">
+        <f>E51</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="6">
+        <v>561</v>
+      </c>
+      <c r="F52" s="6">
+        <f>E52</f>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="6">
+        <v>565</v>
+      </c>
+      <c r="F53" s="6">
+        <f>E53</f>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F54" s="6">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F55" s="6">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="7"/>
+      <c r="B56" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F50" s="6">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3" t="s">
+      <c r="D56" s="5"/>
+      <c r="E56" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F51" s="6">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3" t="s">
+      <c r="E57" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F57" s="6">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E58" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F58" s="6">
         <v>2160</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="D64" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E64" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="F64" s="12">
+        <v>122990400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D61" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E61" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F61" s="12">
-        <v>122990400</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="C65" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="D65" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="E65" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="D62" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F62" s="12">
+      <c r="F65" s="12">
         <v>136261800</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F64" s="8"/>
-    </row>
-    <row r="65" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F65" s="8"/>
     </row>
     <row r="66" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>182</v>
+        <v>117</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>183</v>
+        <v>120</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="F66" s="8"/>
     </row>
     <row r="67" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="A67" s="7"/>
+      <c r="B67" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D67" s="7"/>
       <c r="E67" s="8" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F67" s="8"/>
     </row>
     <row r="68" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C68" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B68" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>188</v>
-      </c>
       <c r="D68" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F68" s="8"/>
     </row>
-    <row r="69" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E69" s="16">
-        <v>1140</v>
-      </c>
-      <c r="F69" s="16">
-        <f>E69</f>
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D70" s="14"/>
-      <c r="E70" s="16">
-        <v>327</v>
-      </c>
-      <c r="F70" s="16"/>
-    </row>
-    <row r="71" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>206</v>
-      </c>
+    <row r="69" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F71" s="8"/>
     </row>
     <row r="72" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E72" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="16"/>
+      <c r="E72" s="16">
+        <v>1140</v>
+      </c>
+      <c r="F72" s="16">
+        <f>E72</f>
+        <v>1140</v>
+      </c>
     </row>
     <row r="73" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14"/>
       <c r="B73" s="15" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="D73" s="14"/>
-      <c r="E73" s="16" t="s">
-        <v>192</v>
+      <c r="E73" s="16">
+        <v>327</v>
       </c>
       <c r="F73" s="16"/>
     </row>
     <row r="74" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14"/>
       <c r="B74" s="15" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="F74" s="16"/>
+        <v>189</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="75" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="F75" s="16"/>
+    </row>
+    <row r="76" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="14"/>
+      <c r="B76" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D76" s="14"/>
+      <c r="E76" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="F76" s="16"/>
+    </row>
+    <row r="77" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="14"/>
+      <c r="B77" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" s="14"/>
+      <c r="E77" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="F77" s="16"/>
+    </row>
+    <row r="78" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="D78" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="E78" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="C79" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E75" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="F76" s="16"/>
+      <c r="D79" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F79" s="16"/>
     </row>
   </sheetData>
-  <sortState ref="A1:F52">
-    <sortCondition ref="F1:F52"/>
+  <sortState ref="A1:F58">
+    <sortCondition ref="F1:F58"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2532,69 +2658,69 @@
     <hyperlink ref="B5" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="A6" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="B6" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A38" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B38" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="A39" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B39" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="A42" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B42" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A31" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B31" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A33" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B33" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B42" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A43" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B43" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A46" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B46" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="A44" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="B44" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A45" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B45" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="A69" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B69" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B43" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B40" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B41" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B52" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B51" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="A72" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="A30" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B30" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A49" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B49" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A72" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B72" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B47" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B48" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B45" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B57" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A75" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A34" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B34" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B56" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="A7" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="A10" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="A37" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B37" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="A75" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="A76" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="A48" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="A49" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="A34" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="A61" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B61" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="A62" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="A63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="A65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B65" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="A66" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B66" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="A67" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B67" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="A68" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B68" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B47" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A47" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B46" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A46" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A41" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B41" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A78" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A79" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A50" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A51" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A38" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A64" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B64" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A65" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B65" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A66" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B66" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B67" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A68" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B68" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A69" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B69" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A70" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B71" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B53" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A53" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B52" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A52" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="A12" r:id="rId76" xr:uid="{D62479DF-02E2-4004-B631-3DD2BB9CA567}"/>
     <hyperlink ref="A15" r:id="rId77" xr:uid="{DDD963F9-35DE-4754-BF22-4EBDFF8D5A38}"/>
   </hyperlinks>
